--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed4/result_data_RandomForest.xlsx
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.526399999999999</v>
+        <v>8.494800000000005</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.554500000000002</v>
+        <v>5.613200000000003</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.093300000000006</v>
+        <v>9.009000000000007</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.231700000000002</v>
+        <v>5.357700000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.538</v>
+        <v>5.6624</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
